--- a/biology/Zoologie/Ctenerpeton/Ctenerpeton.xlsx
+++ b/biology/Zoologie/Ctenerpeton/Ctenerpeton.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ctenerpeton remex, Ctenerpeton alveolatum, Oestocephalus remex, Sauropleura remex
 Ctenerpeton remex est une espèce fossile de lépospondyles, de l'ordre Nectridea et de la famille des Urocordylidae, dans le genre Ctenerpeton. Selon Paleobiology Database en 2022, ce genre a deux espèces référencées, Ctenerpeton primum et Ctenerpeton remex et l'espèce type est Ctenerpeton alveolatum (synonyme de Ctenerpeton remex).
@@ -512,9 +524,11 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Ctenerpeton et l'espèce Ctenerpeton remex sont décrits et publiés par Cope en 1897 et vivait à la fin du Carbonifère dans ce qui est aujourd'hui le territoire des États-Unis[1],[2]
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Ctenerpeton et l'espèce Ctenerpeton remex sont décrits et publiés par Cope en 1897 et vivait à la fin du Carbonifère dans ce qui est aujourd'hui le territoire des États-Unis,
 </t>
         </is>
       </c>
